--- a/biology/Médecine/1152_en_santé_et_médecine/1152_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1152_en_santé_et_médecine/1152_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1152_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1152_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1152 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1152_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1152_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une maison d'asile pour les pèlerins de Saint-Jacques est attestée à Vendôme et serait à l'origine de l'actuel centre hospitalier[1].
-Mentionné pour la première fois, l'hôpital San Pietro in Senna, près de Lodi en Lombardie, est décrit comme un établissement déjà ancien et bien établi[2].
-Un hôpital est attesté à Cuna, sur l'actuelle commune de Monteroni d'Arbia, dans la province de Sienne, en Toscane[3].
-1150-1152 : Saint-Gilbert fait adjoindre un hôpital et une léproserie à l'abbaye qu'il est en train de fonder à Neuffontaines en Bourbonnais[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une maison d'asile pour les pèlerins de Saint-Jacques est attestée à Vendôme et serait à l'origine de l'actuel centre hospitalier.
+Mentionné pour la première fois, l'hôpital San Pietro in Senna, près de Lodi en Lombardie, est décrit comme un établissement déjà ancien et bien établi.
+Un hôpital est attesté à Cuna, sur l'actuelle commune de Monteroni d'Arbia, dans la province de Sienne, en Toscane.
+1150-1152 : Saint-Gilbert fait adjoindre un hôpital et une léproserie à l'abbaye qu'il est en train de fonder à Neuffontaines en Bourbonnais.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1152_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1152_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les statuts donnés par Pierre II, évêque de Rodez, à l'hôpital d'Aubrac, « prévoient que tout ce qu'un malade désire doit lui être procuré [...] sauf ce qui pourrait lui être nuisible[5] ».
-« La maladrerie d'Amiens semble sous l'administration des échevins », indice des « restrictions apportées à l'autorité [des évêques] sur les hôpitaux dès le XIIIe et même le XIIe [siècle] par les seigneurs ou les organisations communales[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les statuts donnés par Pierre II, évêque de Rodez, à l'hôpital d'Aubrac, « prévoient que tout ce qu'un malade désire doit lui être procuré [...] sauf ce qui pourrait lui être nuisible ».
+« La maladrerie d'Amiens semble sous l'administration des échevins », indice des « restrictions apportées à l'autorité [des évêques] sur les hôpitaux dès le XIIIe et même le XIIe [siècle] par les seigneurs ou les organisations communales ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1152_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1152_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre le 12 janvier 1152 et le 12 janvier 1156 : Richer (né à une date inconnue), médecin, archidiacre de Châteaudun puis du Dunois, cité dans des chartes de l'abbaye Notre-Dame de Josaphat[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre le 12 janvier 1152 et le 12 janvier 1156 : Richer (né à une date inconnue), médecin, archidiacre de Châteaudun puis du Dunois, cité dans des chartes de l'abbaye Notre-Dame de Josaphat,.
 </t>
         </is>
       </c>
